--- a/ELEKEN_飛行機班予算_R6_β0.1.5.xlsx
+++ b/ELEKEN_飛行機班予算_R6_β0.1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yutomonceau/Desktop/Git/JA1YNX/Plane-R6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84A5D67-B790-9348-93E5-1F9B3F668B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F025D8F7-F9FE-C945-BC37-61D49EC1C59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="760" windowWidth="29040" windowHeight="18560" xr2:uid="{A8EBACB4-888D-AF45-B455-065BB4C56F6C}"/>
   </bookViews>
@@ -205,11 +205,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>v. β0.1.5</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>あまり</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v.1.0.0</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1096,7 +1096,7 @@
   <dimension ref="B4:H161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1117,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>4</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="12" spans="2:8" ht="21" thickBot="1">
       <c r="B12" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="27">
         <f>(C10-C9)*C7</f>
